--- a/1.4.1/lengths.xlsx
+++ b/1.4.1/lengths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\labs\1.4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B0A8F-6296-4C8E-B91C-C079EC5388C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1F99D-D2D0-4089-A7E0-EC31077396AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>l - длина стержня</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a - положение острия призмы относительно центра масс стержня</t>
   </si>
   <si>
-    <t>Xц - центр масс стержня с призмой</t>
+    <t>l - длина стержня, см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_l </t>
+  </si>
+  <si>
+    <t>2 мм</t>
+  </si>
+  <si>
+    <t>положения центра масс пустого стержня, см (справа)</t>
+  </si>
+  <si>
+    <t>Xц - центр масс стержня с призмой, см справа</t>
   </si>
 </sst>
 </file>
@@ -351,23 +360,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>49.9</v>
+      </c>
+      <c r="C2">
+        <v>24.5</v>
+      </c>
+      <c r="D2">
+        <v>22.3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
